--- a/VISta timeline.xlsx
+++ b/VISta timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7520" windowWidth="38400" windowHeight="14080" tabRatio="500"/>
+    <workbookView xWindow="2860" yWindow="30040" windowWidth="33600" windowHeight="9760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="96">
-  <si>
-    <t>Source table prep or precalc code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>Source table prep</t>
   </si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t>Emory's EmVClass</t>
-  </si>
-  <si>
-    <t>Subarea</t>
   </si>
   <si>
     <t>Gene-phenotype information table</t>
@@ -87,12 +81,6 @@
 Convert to db format</t>
   </si>
   <si>
-    <t>Remove duplicates, lift old transcripts to current, resolve any remaining vkey addition issues</t>
-  </si>
-  <si>
-    <t>AmbryGenetics's AmbryShare</t>
-  </si>
-  <si>
     <t>refGene</t>
   </si>
   <si>
@@ -105,9 +93,6 @@
     <t>add vkey</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>deafness variation database</t>
   </si>
   <si>
@@ -166,9 +151,6 @@
     <t>multiz100way</t>
   </si>
   <si>
-    <t>Parse into table with one human interval per row and each species's sequence is a column</t>
-  </si>
-  <si>
     <t>Compare, assess, determine substitution cutoffs for neutral vs damaging
 (maybe compare to our pathogenic missense variant db)</t>
   </si>
@@ -198,254 +180,320 @@
     <t>#Defining “precalculation” as just the functionality needed to suggest ACMG scores (remaining VISta functionality referred to as Additional VISta [Code/Functionality])</t>
   </si>
   <si>
-    <t>#Comparing mockup and old precalc ideas for additional functions needed for supplemental display purposes</t>
+    <t>Population data</t>
+  </si>
+  <si>
+    <t>Pathogenic variant database</t>
+  </si>
+  <si>
+    <t>Determine final fields to be used for joined pathogenic variant database (maintain # pts and refs)</t>
+  </si>
+  <si>
+    <t>Predictions and computational</t>
+  </si>
+  <si>
+    <t>is_pos_covered
+I: Chromosomal position
+O: Is the position covered &gt; 20x/sample on average? (yes or no)</t>
+  </si>
+  <si>
+    <t>suggest_BS2
+I: VCF variant
+O: BS2 or other options</t>
+  </si>
+  <si>
+    <t>suggest_BA1_BS1_PM2
+I: VCF variant
+O: BA1, BS1, PM2, or other options</t>
+  </si>
+  <si>
+    <t>get_genotype_counts
+I: VCF variant
+O: genotype counts at this position (number homoz, hetero, hemiz)</t>
+  </si>
+  <si>
+    <t>suggest_final_pathogenicity
+I: all assigned ACMG scores
+O: final pathogenicity assertion</t>
+  </si>
+  <si>
+    <t>cdot_to_VCF
+I: HGVS c. variant with or without transcript version
+O: left-normalized VCF
+(if no transcript version, assume most current)</t>
+  </si>
+  <si>
+    <t>normalize_VCF
+I: VCF variant
+O: left-normalized VCF variant</t>
+  </si>
+  <si>
+    <t>add_vkey
+I: left-normalized VCF variant
+O: vkey</t>
+  </si>
+  <si>
+    <t>get_all_cdot_and_pdot
+I: VCF variant
+O: all possible HGVS c. and p. for all refGene NM_ and NR_ transcripts
+(following performance assessment of SnpEff, Annovar, VEP, VAT)</t>
+  </si>
+  <si>
+    <t>check_for_cdot_and_pdot_discrepancies
+I: VCF variant, transcript
+O: A warning/notification that discrepancies are present if any HGVS c. or p. disagree
+(discrepancies will trigger manual review and correction of the official disease transcript c. and p. in RVS db)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">get_pathogenic_variants_MVL
+I: chr, start, stop
+O: Variants from pathogenic db with </t>
+  </si>
+  <si>
+    <t>get_benign_variants
+I: chr, start, stop
+O: variants with MAF &gt; (5% or disease AF?), and variants with concordant Ben or LBen assertions</t>
+  </si>
+  <si>
+    <t>get_pathogenic_variants
+I: chr, start, stop
+O: Variants from pathogenic db with a pathogenic assertion (allow discordant for review purposes)</t>
+  </si>
+  <si>
+    <t>suggest_BP3
+I: VCF variant
+note: for inframe, pos to pos + len(inframe)
+O: BP3, or other options</t>
+  </si>
+  <si>
+    <t>suggest_PS1
+I: VCF variant
+note: for inframe, pos to pos + len(inframe)
+O: PS1 or other options</t>
+  </si>
+  <si>
+    <t>get_range_of_codon_with_consequence
+I: VCF variant
+note: returns interval of the codon affected (stopgain for FS) do math on refGene exons (unless way to use p.?)
+O: chr, start, stop</t>
+  </si>
+  <si>
+    <t>is_NMD_predicted
+I: VCF variant, transcript
+O: yes or no</t>
+  </si>
+  <si>
+    <t>suggest_PP5_BP6
+I: VCF variant, transcript
+O: PP5, BP6, or other options (concordant assertions, no publication references, not in MVL, compare get_patho to get_patho_MVL)</t>
+  </si>
+  <si>
+    <t>suggest_PS4
+I: VCF variant, transcript
+O: PS4-M, PS4-P, or other options</t>
+  </si>
+  <si>
+    <t>get_pdot
+I: VCF variant, transcript
+O: HGVS p. (via query of RVS db)</t>
+  </si>
+  <si>
+    <t>get_variant_type
+I: VCF variant, transcript
+O: variant type (stopgain, frameshift, CSS, stoploss, startloss, inframe, nonsynonymous, intronic)</t>
+  </si>
+  <si>
+    <t>get_valid_disease_variant_types
+I: phenotype_ID, transcript
+O: missense only/LOF only/any</t>
+  </si>
+  <si>
+    <t>get_cDNA_length
+I: transcript
+O: length in protein-coding bases (divide by 3 to get AA length) #beware stop codon inclusion</t>
+  </si>
+  <si>
+    <t>get_length_of_cDNA_to_position
+I: chrom, pos, transcript
+O: length in protein-coding bases</t>
+  </si>
+  <si>
+    <t>get_range_of_variant_codon
+I: VCF variant, transcript
+note: do math on refGene exons (unless way to use p.?)
+O: chr, start, stop</t>
+  </si>
+  <si>
+    <t>affects_dispensable_exon
+I: chr, pos, transcript
+O: yes or no</t>
+  </si>
+  <si>
+    <t>suggest_PP3_BP4_BP7
+I: VCF variant, transcript
+O: PP3 , BP4, BP7, or other options</t>
+  </si>
+  <si>
+    <t>suggest_PVS1_PM4
+I: VCF variant, transcript, phenotype_ID
+O: PVS1, PM4, PM4-S, PM4-VS, or other options</t>
+  </si>
+  <si>
+    <t>suggest_PP2_BP1
+I: VCF variant, transcript, phenotype
+O: PP2, BP1, or other options</t>
+  </si>
+  <si>
+    <t>Overseeing manually curated disease-relevant transcript, disease allele frequency cutoff, inheritance pattern, can BS1 be applied (age of onset + penetrance)?, hotspot(PM1)-valid locations/patterns, and valid disease variant types (missense only/LOF only/any)
+Once AF cutoffs are decided we should QC by comparing to known pathos and specifically the MVL, plot distribution of AFs for each gene's pathogenic variants</t>
+  </si>
+  <si>
+    <t>VISta_variant_population_database</t>
+  </si>
+  <si>
+    <t>Consider after prep steps for each db: Merge UK10K into non-fin europeans? Merge HGVD into east asian or leave japanese? Qatar=MENA</t>
+  </si>
+  <si>
+    <t>get_highest_MAF
+I: VCF variant
+O: highest subpopulation/ethnicity MAF with AC &gt; 2000, only 0% if cov&gt;20x/sample</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">#Need to account not just for actual parsing but for formalizing the parsing into a script for future update use, maybe </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="12"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>clarify which data sources this is even appropriate for</t>
+      <t>#Need to decide</t>
     </r>
     <r>
       <rPr>
         <i/>
-        <sz val="12"/>
+        <sz val="14"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for which data sources </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
         <color theme="0" tint="-0.499984740745262"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> beforehand (are there data sources where we agree the effort required to update won't be worth it)</t>
+      <t>the effort required to update won't be worth it</t>
     </r>
   </si>
   <si>
-    <t>Population data</t>
-  </si>
-  <si>
-    <t>Code written, Nick incorporating into RVS functionality, need to understand usage of RVS functions</t>
-  </si>
-  <si>
-    <t>Pathogenic variant database</t>
-  </si>
-  <si>
-    <t>Determine final fields to be used for joined pathogenic variant database (maintain # pts and refs)</t>
-  </si>
-  <si>
-    <t>Predictions and computational</t>
-  </si>
-  <si>
-    <t>Overseeing manually curated disease-relevant transcript, disease allele frequency cutoff, inheritance pattern, can BS1 be applied (age of onset + penetrance)?, hotspot(PM1)-valid locations/patterns, and valid disease variant types (missense only/LOF only/any)</t>
-  </si>
-  <si>
-    <t>get_highest_MAF
+    <t>get_all_population_data
 I: VCF variant
-O: highest subpopulation/ethnicity MAF with AC &gt; 2000</t>
-  </si>
-  <si>
-    <t>is_pos_covered
-I: Chromosomal position
-O: Is the position covered &gt; 20x/sample on average? (yes or no)</t>
-  </si>
-  <si>
-    <t>suggest_BS2
+O: AC, AN, MAF, homo hetero hemiz counts for all available databases and ethnicities/sub-pops</t>
+  </si>
+  <si>
+    <t>Supporting display planel /
+Variant browser</t>
+  </si>
+  <si>
+    <t>Remove duplicates, lift old transcripts to current, resolve any remaining vkey addition issues, compare to pt VCFs</t>
+  </si>
+  <si>
+    <t>get_number_of_exons
+I: transcript
+O: number of exons</t>
+  </si>
+  <si>
+    <t>get_exon_number
+I: chr, pos, transcript
+note: if variant is within 15bp of an exon, use that exon, else return null
+O: exon number</t>
+  </si>
+  <si>
+    <t>get_splice_site_coords
+I: chr, pos, transcript
+note: if variant is within 15bp of an exon, use that exon, else return null
+O: two intervals of chr:start-stop, one for donor and one for acceptor</t>
+  </si>
+  <si>
+    <t>is_first_donor_or_last_acceptor
+I: chr, pos, transcript
+O: first_donor, last_acceptor, or null</t>
+  </si>
+  <si>
+    <t>Sub-area</t>
+  </si>
+  <si>
+    <t>Source table prep or code</t>
+  </si>
+  <si>
+    <t>suggest_PM5
+I: VCF variant, transcript
+O: PM5</t>
+  </si>
+  <si>
+    <t>suggest_PM1
+I: VCF variant, transcript
+O: PM1</t>
+  </si>
+  <si>
+    <t>suggest_PP3_BP4_from_conservation
+I: VCF variant, transcript
+O: PP3, BP4, null</t>
+  </si>
+  <si>
+    <t>suggest_PP3_BP4_from_missense_predictors
 I: VCF variant
-O: BS2 or other options</t>
-  </si>
-  <si>
-    <t>suggest_BA1_BS1_PM2
-I: VCF variant
-O: BA1, BS1, PM2, or other options</t>
-  </si>
-  <si>
-    <t>get_genotype_counts
-I: VCF variant
-O: genotype counts at this position (number homoz, hetero, hemiz)</t>
-  </si>
-  <si>
-    <t>suggest_final_pathogenicity
-I: all assigned ACMG scores
-O: final pathogenicity assertion</t>
-  </si>
-  <si>
-    <t>cdot_to_VCF
-I: HGVS c. variant with or without transcript version
-O: left-normalized VCF
-(if no transcript version, assume most current)</t>
-  </si>
-  <si>
-    <t>normalize_VCF
-I: VCF variant
-O: left-normalized VCF variant</t>
-  </si>
-  <si>
-    <t>add_vkey
-I: left-normalized VCF variant
-O: vkey</t>
-  </si>
-  <si>
-    <t>get_all_cdot_and_pdot
-I: VCF variant
-O: all possible HGVS c. and p. for all refGene NM_ and NR_ transcripts
-(following performance assessment of SnpEff, Annovar, VEP, VAT)</t>
-  </si>
-  <si>
-    <t>check_for_cdot_and_pdot_discrepancies
-I: VCF variant, transcript
-O: A warning/notification that discrepancies are present if any HGVS c. or p. disagree
-(discrepancies will trigger manual review and correction of the official disease transcript c. and p. in RVS db)</t>
-  </si>
-  <si>
-    <t>get_all_MAF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">get_pathogenic_variants_MVL
-I: chr, start, stop
-O: Variants from pathogenic db with </t>
-  </si>
-  <si>
-    <t>get_benign_variants
-I: chr, start, stop
-O: variants with MAF &gt; (5% or disease AF?), and variants with concordant Ben or LBen assertions</t>
-  </si>
-  <si>
-    <t>get_pathogenic_variants
-I: chr, start, stop
-O: Variants from pathogenic db with a pathogenic assertion (allow discordant for review purposes)</t>
-  </si>
-  <si>
-    <t>suggest_BP3
-I: VCF variant
-note: for inframe, pos to pos + len(inframe)
-O: BP3, or other options</t>
-  </si>
-  <si>
-    <t>suggest_PS1
-I: VCF variant
-note: for inframe, pos to pos + len(inframe)
-O: PS1 or other options</t>
-  </si>
-  <si>
-    <t>get_range_of_codon_with_consequence
-I: VCF variant
-note: returns interval of the codon affected (stopgain for FS) do math on refGene exons (unless way to use p.?)
-O: chr, start, stop</t>
-  </si>
-  <si>
-    <t>is_NMD_predicted
-I: VCF variant, transcript
-O: yes or no</t>
-  </si>
-  <si>
-    <t>suggest_PP5_BP6
-I: VCF variant, transcript
-O: PP5, BP6, or other options (concordant assertions, no publication references, not in MVL, compare get_patho to get_patho_MVL)</t>
-  </si>
-  <si>
-    <t>suggest_PS4
-I: VCF variant, transcript
-O: PS4-M, PS4-P, or other options</t>
-  </si>
-  <si>
-    <t>get_pdot
-I: VCF variant, transcript
-O: HGVS p. (via query of RVS db)</t>
-  </si>
-  <si>
-    <t>get_variant_type
-I: VCF variant, transcript
-O: variant type (stopgain, frameshift, CSS, stoploss, startloss, inframe, nonsynonymous, intronic)</t>
-  </si>
-  <si>
-    <t>get_valid_disease_variant_types
-I: phenotype_ID, transcript
-O: missense only/LOF only/any</t>
-  </si>
-  <si>
-    <t>get_cDNA_length
-I: transcript
-O: length in protein-coding bases (divide by 3 to get AA length) #beware stop codon inclusion</t>
-  </si>
-  <si>
-    <t>get_length_of_cDNA_to_position
-I: chrom, pos, transcript
-O: length in protein-coding bases</t>
-  </si>
-  <si>
-    <t>get_range_of_variant_codon
-I: VCF variant, transcript
-note: do math on refGene exons (unless way to use p.?)
-O: chr, start, stop</t>
+O: PP3, BP4, null</t>
   </si>
   <si>
     <t>get_range_of_new_stop_codon
 I: VCF variant, transcript
-note:
-for frameshift and stoploss...
-if p. annotation is consistently accurate, use that, in combination with get_var_codon...
+note: for frameshift and stoploss... (and maybe CSS in the future if they decide to predict exon skipping)
+if p. annotation is consistently accurate, use that, in combination with get_range_of_variant_codon... (get variant's chr,pos get number of AA downstream to X [FS47X], math)
 consider pyhgvs_cdot_to_VCF if getting c. range for new stop is easy...
 else raw calc = this will need to take a (modified) cDNA sequence, translate it to find new stop codon, and return the chromosomal position of that new stop codon
 O: chr, start, stop</t>
   </si>
   <si>
-    <t>affects_dispensable_exon
-I: chr, pos, transcript
-O: yes or no</t>
-  </si>
-  <si>
-    <t>suggest_PP3_BP4_BP7
-I: VCF variant, transcript
-O: PP3 , BP4, BP7, or other options</t>
-  </si>
-  <si>
-    <t>suggest_PVS1_PM4
-I: VCF variant, transcript, phenotype_ID
-O: PVS1, PM4, PM4-S, PM4-VS, or other options</t>
-  </si>
-  <si>
-    <t>suggest_PM5
-I: VCF variant, transcript
-O: PP3</t>
-  </si>
-  <si>
-    <t>suggest_PM1
-I: VCF variant, transcript
-O: PP3</t>
-  </si>
-  <si>
-    <t>suggest_PP2_BP1
-I: VCF variant, transcript, phenotype
-O: PP2, BP1, or other options</t>
-  </si>
-  <si>
-    <t>get_ada_score
+    <t>get_dbscSNV_scores
 I: VCF variant
-O: ada_score</t>
-  </si>
-  <si>
-    <t>get_missense_predictor_results
+O: ada_score, rf_score</t>
+  </si>
+  <si>
+    <t>get_nucleotide_MSA
+I: chr:start-stop
+O: all alignments covering a position in the interval, or a subsection of the alignment if the interval is contained within a single alignment block
+(can neighboring blocks be separated by a GAP indicator ( maybe |), they are broken into different lines in UCSC)? Or can we just stick them next to each other ensuring the same species per row?)</t>
+  </si>
+  <si>
+    <t>assigned to Dianwei/Sean</t>
+  </si>
+  <si>
+    <t>Zach's priority</t>
+  </si>
+  <si>
+    <t>Code written, Nick incorporating into RVS functionality, need to understand usage of RVS functions, aim to ensure compatibility with RVS</t>
+  </si>
+  <si>
+    <t>get_protein_MSA
+I: chr:start-stop
+O: all alignments covering a position in the interval, or a subsection of the alignment if the interval is contained within a single alignment block
+(can neighboring blocks be separated by a GAP indicator ( maybe |), they are broken into different lines in UCSC)? Or can we just stick them next to each other ensuring the same species per row?)</t>
+  </si>
+  <si>
+    <t>Parse into table with one human interval per row and each possible species's sequence is a column, if a species is not present in the interval note as NA or null, if all gaps note all gaps
+Is there ever more than one alignment for a single hg19 position? (multi gene/transcript?)
+How are gaps between human intervals indicated in these files?</t>
+  </si>
+  <si>
+    <t>get_Alamut_scores
 I: VCF variant
-O: PP3, BP4, null</t>
-  </si>
-  <si>
-    <t>get_conservation_results
-I: VCF variant, transcript
-O: PP3, BP4, null</t>
+O: five scores from alamut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -471,27 +519,17 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
       <i/>
       <sz val="14"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -529,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -555,9 +593,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -573,7 +608,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -853,16 +906,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="93.6640625" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="3" customWidth="1"/>
@@ -871,119 +924,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="16" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="18">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="18">
+        <v>3</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" s="16" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="D8" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7">
-        <v>3</v>
-      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D10" s="7">
         <v>3</v>
@@ -991,13 +1064,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -1005,22 +1078,24 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -1029,15 +1104,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
@@ -1045,83 +1120,83 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -1129,126 +1204,129 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" s="10" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="14"/>
-      <c r="D29" s="12"/>
-      <c r="F29" s="13"/>
+      <c r="C29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -1256,13 +1334,13 @@
     </row>
     <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -1270,13 +1348,13 @@
     </row>
     <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
@@ -1284,41 +1362,41 @@
     </row>
     <row r="33" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
@@ -1326,13 +1404,13 @@
     </row>
     <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -1340,13 +1418,13 @@
     </row>
     <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -1354,13 +1432,13 @@
     </row>
     <row r="38" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -1368,13 +1446,13 @@
     </row>
     <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -1382,13 +1460,13 @@
     </row>
     <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -1396,69 +1474,69 @@
     </row>
     <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D42" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D44" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -1466,27 +1544,27 @@
     </row>
     <row r="46" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -1494,13 +1572,13 @@
     </row>
     <row r="48" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
@@ -1508,27 +1586,27 @@
     </row>
     <row r="49" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -1536,13 +1614,13 @@
     </row>
     <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -1550,13 +1628,13 @@
     </row>
     <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -1564,13 +1642,13 @@
     </row>
     <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -1578,10 +1656,10 @@
     </row>
     <row r="54" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>94</v>
@@ -1592,13 +1670,13 @@
     </row>
     <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -1606,13 +1684,13 @@
     </row>
     <row r="56" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D56" s="7">
         <v>1</v>
@@ -1620,175 +1698,233 @@
     </row>
     <row r="57" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D57" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="10" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="11"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="10"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="D60" s="14">
+        <v>1</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>54</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
     </row>
     <row r="62" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="D62" s="14"/>
       <c r="E62" s="15"/>
     </row>
-    <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="D63" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D64" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" s="7"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" s="7"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="7"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D73" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D74" s="7"/>
@@ -1844,13 +1980,11 @@
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D92" s="7"/>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
+  <mergeCells count="3">
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/VISta timeline.xlsx
+++ b/VISta timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="30040" windowWidth="33600" windowHeight="9760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="103">
   <si>
     <t>Source table prep</t>
   </si>
@@ -44,13 +44,7 @@
     <t>gnomAD coverage file</t>
   </si>
   <si>
-    <t>HGVD</t>
-  </si>
-  <si>
     <t>UK10K</t>
-  </si>
-  <si>
-    <t>Qatar sequencing study</t>
   </si>
   <si>
     <t>Sema4's MVL</t>
@@ -66,28 +60,7 @@
 (If we have concerns about data size storage, probably can be condensed into a reduced .bed format, collapse intervals with the same coverage, or limit to exons +100bp)</t>
   </si>
   <si>
-    <t>Multi-allelic sites if any need to be split into one variant per row
-Left normalize and generate vkey
-What % of sites are covered &gt;20x on average?  Remove sites below or remove individuals below and recalc AF?
-How many variants exist at an AF greater than observed in gnomAD? &gt;1%? &gt;5%?
-Convert to db format</t>
-  </si>
-  <si>
-    <t>The three files need to be merged and data adjusted accordingly
-Multi-allelic sites need to be split into one variant per row
-Left normalize and generate vkey
-What % of sites are covered &gt;20x on average?  Remove sites below or remove individuals below and recalc AF?
-How many variants exist at an AF greater than observed in gnomAD? &gt;1%? &gt;5%?
-Convert to db format</t>
-  </si>
-  <si>
     <t>refGene</t>
-  </si>
-  <si>
-    <t>Finalize transcript table: 1 table with all transcript data present for searching (with date of most recent refGene table that was merged)
--This table alone should never be used for variant lifting/validation
--This table will be queried by various scripts to create temporary tables as needed for variant lifting/validation
-Script to download refGene updates, add version info, compare to transcript table, and merge updates</t>
   </si>
   <si>
     <t>add vkey</t>
@@ -293,11 +266,6 @@
 O: PS4-M, PS4-P, or other options</t>
   </si>
   <si>
-    <t>get_pdot
-I: VCF variant, transcript
-O: HGVS p. (via query of RVS db)</t>
-  </si>
-  <si>
     <t>get_variant_type
 I: VCF variant, transcript
 O: variant type (stopgain, frameshift, CSS, stoploss, startloss, inframe, nonsynonymous, intronic)</t>
@@ -346,12 +314,6 @@
   <si>
     <t>Overseeing manually curated disease-relevant transcript, disease allele frequency cutoff, inheritance pattern, can BS1 be applied (age of onset + penetrance)?, hotspot(PM1)-valid locations/patterns, and valid disease variant types (missense only/LOF only/any)
 Once AF cutoffs are decided we should QC by comparing to known pathos and specifically the MVL, plot distribution of AFs for each gene's pathogenic variants</t>
-  </si>
-  <si>
-    <t>VISta_variant_population_database</t>
-  </si>
-  <si>
-    <t>Consider after prep steps for each db: Merge UK10K into non-fin europeans? Merge HGVD into east asian or leave japanese? Qatar=MENA</t>
   </si>
   <si>
     <t>get_highest_MAF
@@ -393,9 +355,6 @@
 Variant browser</t>
   </si>
   <si>
-    <t>Remove duplicates, lift old transcripts to current, resolve any remaining vkey addition issues, compare to pt VCFs</t>
-  </si>
-  <si>
     <t>get_number_of_exons
 I: transcript
 O: number of exons</t>
@@ -464,13 +423,7 @@
 (can neighboring blocks be separated by a GAP indicator ( maybe |), they are broken into different lines in UCSC)? Or can we just stick them next to each other ensuring the same species per row?)</t>
   </si>
   <si>
-    <t>assigned to Dianwei/Sean</t>
-  </si>
-  <si>
     <t>Zach's priority</t>
-  </si>
-  <si>
-    <t>Code written, Nick incorporating into RVS functionality, need to understand usage of RVS functions, aim to ensure compatibility with RVS</t>
   </si>
   <si>
     <t>get_protein_MSA
@@ -487,6 +440,48 @@
     <t>get_Alamut_scores
 I: VCF variant
 O: five scores from alamut</t>
+  </si>
+  <si>
+    <t>get_pdot
+I: VCF variant, transcript
+O: HGVS p. (via query of RVS db?)(or run SnpEff?)</t>
+  </si>
+  <si>
+    <t>Qatar sequencing study
+(~1000 exomes)</t>
+  </si>
+  <si>
+    <t>HGVD
+(~1000 exomes)</t>
+  </si>
+  <si>
+    <t>Remove duplicates, lift old transcripts to current, resolve any remaining vkey addition issues, compare to pt VCFs?
+Finalize upload to VISta</t>
+  </si>
+  <si>
+    <t>Multi-allelic sites if any need to be split into one variant per row
+Left normalize and generate vkey
+What % of sites are covered &gt;20x on average?  Remove sites below or remove individuals below and recalc AF?
+How many variants exist at an AF greater than observed in gnomAD? &gt;1%? &gt;5%?
+Convert to db format (tabix ready)</t>
+  </si>
+  <si>
+    <t>The three files need to be merged and data adjusted accordingly
+Multi-allelic sites need to be split into one variant per row
+Left normalize and generate vkey
+What % of sites are covered &gt;20x on average?  Remove sites below or remove individuals below and recalc AF?
+How many variants exist at an AF greater than observed in gnomAD? &gt;1%? &gt;5%?
+Convert to db format (tabix ready)</t>
+  </si>
+  <si>
+    <t>Finalize transcript table: 1 table with all transcript data present for searching (with date of most recent refGene table that was merged)
+Scripts to add version info to a new refGene download and then resolve duplicate alignments after appending new data</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>assigned to Dianwei/Sean after clinvar</t>
   </si>
 </sst>
 </file>
@@ -608,12 +603,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -625,6 +614,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,26 +920,26 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -956,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -977,89 +972,91 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="16" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16" t="s">
+    <row r="6" spans="1:6" s="14" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" s="14" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="C7" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" s="14" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" s="16" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="D8" s="16">
+        <v>3</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="18">
+      <c r="C9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" s="16" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="18">
-        <v>3</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" s="16" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19"/>
+      <c r="E9" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,38 +1064,38 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
@@ -1109,41 +1106,41 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,13 +1162,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -1193,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1207,112 +1204,112 @@
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D25" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="13"/>
-      <c r="D28" s="11"/>
-      <c r="F28" s="12"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="13"/>
+      <c r="D27" s="11"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D29" s="7">
         <v>1</v>
@@ -1320,13 +1317,13 @@
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -1334,13 +1331,13 @@
     </row>
     <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -1348,41 +1345,41 @@
     </row>
     <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D32" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
@@ -1390,13 +1387,13 @@
     </row>
     <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
@@ -1404,13 +1401,13 @@
     </row>
     <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -1418,13 +1415,13 @@
     </row>
     <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -1432,13 +1429,13 @@
     </row>
     <row r="38" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -1446,13 +1443,13 @@
     </row>
     <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -1460,66 +1457,66 @@
     </row>
     <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D42" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D43" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>65</v>
@@ -1530,27 +1527,27 @@
     </row>
     <row r="45" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
@@ -1558,13 +1555,13 @@
     </row>
     <row r="47" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -1572,27 +1569,27 @@
     </row>
     <row r="48" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
@@ -1600,13 +1597,13 @@
     </row>
     <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -1614,13 +1611,13 @@
     </row>
     <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -1628,13 +1625,13 @@
     </row>
     <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -1642,13 +1639,13 @@
     </row>
     <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -1656,13 +1653,13 @@
     </row>
     <row r="54" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -1670,13 +1667,13 @@
     </row>
     <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -1684,173 +1681,173 @@
     </row>
     <row r="56" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="10"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D56" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="10"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="D58" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D59" s="18">
+        <v>1</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D60" s="14">
-        <v>1</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="15"/>
-    </row>
-    <row r="62" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
+        <v>52</v>
+      </c>
+      <c r="D62" s="7">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D63" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="D66" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D67" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D68" s="7">
         <v>1</v>
@@ -1858,73 +1855,62 @@
     </row>
     <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D69" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>43</v>
+    <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D70" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D71" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D72" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D73" s="7">
         <v>3</v>
       </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D74" s="7"/>
@@ -1977,13 +1963,10 @@
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" s="7"/>
-    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
     <mergeCell ref="E6:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VISta timeline.xlsx
+++ b/VISta timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="2860" yWindow="22060" windowWidth="33600" windowHeight="19500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,11 +199,6 @@
     <t>normalize_VCF
 I: VCF variant
 O: left-normalized VCF variant</t>
-  </si>
-  <si>
-    <t>add_vkey
-I: left-normalized VCF variant
-O: vkey</t>
   </si>
   <si>
     <t>get_all_cdot_and_pdot
@@ -455,10 +450,6 @@
 (~1000 exomes)</t>
   </si>
   <si>
-    <t>Remove duplicates, lift old transcripts to current, resolve any remaining vkey addition issues, compare to pt VCFs?
-Finalize upload to VISta</t>
-  </si>
-  <si>
     <t>Multi-allelic sites if any need to be split into one variant per row
 Left normalize and generate vkey
 What % of sites are covered &gt;20x on average?  Remove sites below or remove individuals below and recalc AF?
@@ -482,6 +473,16 @@
   </si>
   <si>
     <t>assigned to Dianwei/Sean after clinvar</t>
+  </si>
+  <si>
+    <t>Remove duplicates?, lift old transcripts to current, resolve any remaining vkey addition issues, compare to pt VCFs?
+Any work done needs a script to be reran on the most current MVL dump directly preceding VISta usage
+Finalize upload to VISta</t>
+  </si>
+  <si>
+    <t>get_vkey
+I: left-normalized VCF variant
+O: vkey</t>
   </si>
 </sst>
 </file>
@@ -903,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,15 +926,15 @@
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
@@ -954,7 +955,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -983,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>96</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F6" s="17"/>
     </row>
@@ -1004,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D7" s="16">
         <v>3</v>
@@ -1017,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D8" s="16">
         <v>3</v>
@@ -1028,7 +1029,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="17"/>
     </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1036,13 +1037,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D9" s="7">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1219,13 +1220,13 @@
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1250,7 +1251,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -1295,7 +1296,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
@@ -1365,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="7">
         <v>1</v>
@@ -1379,7 +1380,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="7">
         <v>1</v>
@@ -1393,7 +1394,7 @@
         <v>41</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="7">
         <v>1</v>
@@ -1407,7 +1408,7 @@
         <v>41</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
@@ -1421,7 +1422,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7">
         <v>1</v>
@@ -1435,7 +1436,7 @@
         <v>43</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -1449,7 +1450,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="7">
         <v>1</v>
@@ -1463,7 +1464,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="7">
         <v>1</v>
@@ -1477,7 +1478,7 @@
         <v>43</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="7">
         <v>1</v>
@@ -1491,7 +1492,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D42" s="7">
         <v>2</v>
@@ -1505,7 +1506,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="7">
         <v>1</v>
@@ -1519,7 +1520,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="7">
         <v>1</v>
@@ -1533,7 +1534,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="7">
         <v>1</v>
@@ -1547,7 +1548,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D46" s="7">
         <v>1</v>
@@ -1561,7 +1562,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" s="7">
         <v>1</v>
@@ -1575,7 +1576,7 @@
         <v>43</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" s="7">
         <v>1</v>
@@ -1589,7 +1590,7 @@
         <v>43</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="7">
         <v>1</v>
@@ -1603,7 +1604,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="7">
         <v>1</v>
@@ -1617,7 +1618,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -1631,7 +1632,7 @@
         <v>43</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -1645,7 +1646,7 @@
         <v>43</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -1659,7 +1660,7 @@
         <v>43</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -1673,7 +1674,7 @@
         <v>43</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -1687,7 +1688,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="7">
         <v>1</v>
@@ -1726,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
@@ -1750,7 +1751,7 @@
         <v>36</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
@@ -1763,7 +1764,7 @@
         <v>36</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D62" s="7">
         <v>7</v>
@@ -1777,7 +1778,7 @@
         <v>36</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D63" s="7">
         <v>1</v>
@@ -1788,10 +1789,10 @@
         <v>38</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" s="7">
         <v>1</v>
@@ -1802,10 +1803,10 @@
         <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D65" s="7">
         <v>1</v>
@@ -1816,10 +1817,10 @@
         <v>38</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D66" s="7">
         <v>1</v>
@@ -1830,10 +1831,10 @@
         <v>38</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D67" s="7">
         <v>1</v>
@@ -1844,10 +1845,10 @@
         <v>38</v>
       </c>
       <c r="B68" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D68" s="7">
         <v>1</v>
@@ -1858,10 +1859,10 @@
         <v>38</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D69" s="7">
         <v>1</v>
@@ -1872,10 +1873,10 @@
         <v>38</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D70" s="7">
         <v>2</v>
@@ -1886,10 +1887,10 @@
         <v>38</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="7">
         <v>1</v>
@@ -1900,10 +1901,10 @@
         <v>38</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D72" s="7">
         <v>3</v>

--- a/VISta timeline.xlsx
+++ b/VISta timeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="22060" windowWidth="33600" windowHeight="19500" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="10060" windowWidth="38400" windowHeight="10560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="112">
   <si>
     <t>Source table prep</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Task / Functionality of code needed</t>
-  </si>
-  <si>
-    <t>Template form still being designed</t>
   </si>
   <si>
     <t>gnomAD coverage file</t>
@@ -118,9 +115,6 @@
     <t>dbNSFP</t>
   </si>
   <si>
-    <t>Compare, assess, determine cutoffs for REVEL, CADD, metaSVM vs SIFT, PolyPhen2, MutationTaster2</t>
-  </si>
-  <si>
     <t>multiz100way</t>
   </si>
   <si>
@@ -159,30 +153,7 @@
     <t>Pathogenic variant database</t>
   </si>
   <si>
-    <t>Determine final fields to be used for joined pathogenic variant database (maintain # pts and refs)</t>
-  </si>
-  <si>
     <t>Predictions and computational</t>
-  </si>
-  <si>
-    <t>is_pos_covered
-I: Chromosomal position
-O: Is the position covered &gt; 20x/sample on average? (yes or no)</t>
-  </si>
-  <si>
-    <t>suggest_BS2
-I: VCF variant
-O: BS2 or other options</t>
-  </si>
-  <si>
-    <t>suggest_BA1_BS1_PM2
-I: VCF variant
-O: BA1, BS1, PM2, or other options</t>
-  </si>
-  <si>
-    <t>get_genotype_counts
-I: VCF variant
-O: genotype counts at this position (number homoz, hetero, hemiz)</t>
   </si>
   <si>
     <t>suggest_final_pathogenicity
@@ -196,11 +167,6 @@
 (if no transcript version, assume most current)</t>
   </si>
   <si>
-    <t>normalize_VCF
-I: VCF variant
-O: left-normalized VCF variant</t>
-  </si>
-  <si>
     <t>get_all_cdot_and_pdot
 I: VCF variant
 O: all possible HGVS c. and p. for all refGene NM_ and NR_ transcripts
@@ -213,19 +179,9 @@
 (discrepancies will trigger manual review and correction of the official disease transcript c. and p. in RVS db)</t>
   </si>
   <si>
-    <t xml:space="preserve">get_pathogenic_variants_MVL
-I: chr, start, stop
-O: Variants from pathogenic db with </t>
-  </si>
-  <si>
     <t>get_benign_variants
 I: chr, start, stop
 O: variants with MAF &gt; (5% or disease AF?), and variants with concordant Ben or LBen assertions</t>
-  </si>
-  <si>
-    <t>get_pathogenic_variants
-I: chr, start, stop
-O: Variants from pathogenic db with a pathogenic assertion (allow discordant for review purposes)</t>
   </si>
   <si>
     <t>suggest_BP3
@@ -251,21 +207,6 @@
 O: yes or no</t>
   </si>
   <si>
-    <t>suggest_PP5_BP6
-I: VCF variant, transcript
-O: PP5, BP6, or other options (concordant assertions, no publication references, not in MVL, compare get_patho to get_patho_MVL)</t>
-  </si>
-  <si>
-    <t>suggest_PS4
-I: VCF variant, transcript
-O: PS4-M, PS4-P, or other options</t>
-  </si>
-  <si>
-    <t>get_variant_type
-I: VCF variant, transcript
-O: variant type (stopgain, frameshift, CSS, stoploss, startloss, inframe, nonsynonymous, intronic)</t>
-  </si>
-  <si>
     <t>get_valid_disease_variant_types
 I: phenotype_ID, transcript
 O: missense only/LOF only/any</t>
@@ -309,11 +250,6 @@
   <si>
     <t>Overseeing manually curated disease-relevant transcript, disease allele frequency cutoff, inheritance pattern, can BS1 be applied (age of onset + penetrance)?, hotspot(PM1)-valid locations/patterns, and valid disease variant types (missense only/LOF only/any)
 Once AF cutoffs are decided we should QC by comparing to known pathos and specifically the MVL, plot distribution of AFs for each gene's pathogenic variants</t>
-  </si>
-  <si>
-    <t>get_highest_MAF
-I: VCF variant
-O: highest subpopulation/ethnicity MAF with AC &gt; 2000, only 0% if cov&gt;20x/sample</t>
   </si>
   <si>
     <r>
@@ -341,11 +277,6 @@
     </r>
   </si>
   <si>
-    <t>get_all_population_data
-I: VCF variant
-O: AC, AN, MAF, homo hetero hemiz counts for all available databases and ethnicities/sub-pops</t>
-  </si>
-  <si>
     <t>Supporting display planel /
 Variant browser</t>
   </si>
@@ -437,11 +368,6 @@
 O: five scores from alamut</t>
   </si>
   <si>
-    <t>get_pdot
-I: VCF variant, transcript
-O: HGVS p. (via query of RVS db?)(or run SnpEff?)</t>
-  </si>
-  <si>
     <t>Qatar sequencing study
 (~1000 exomes)</t>
   </si>
@@ -472,9 +398,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>assigned to Dianwei/Sean after clinvar</t>
-  </si>
-  <si>
     <t>Remove duplicates?, lift old transcripts to current, resolve any remaining vkey addition issues, compare to pt VCFs?
 Any work done needs a script to be reran on the most current MVL dump directly preceding VISta usage
 Finalize upload to VISta</t>
@@ -483,6 +406,118 @@
     <t>get_vkey
 I: left-normalized VCF variant
 O: vkey</t>
+  </si>
+  <si>
+    <t>is_pos_covered
+I: chrom, pos
+O: Is the position covered &gt; 20x/sample on average? (yes or no)</t>
+  </si>
+  <si>
+    <t>Done
+(as python script at least, need to add to perl library)</t>
+  </si>
+  <si>
+    <t>This functionality will be provided by Nick from RVS.
+Will import RVS module into VISta library and use his function</t>
+  </si>
+  <si>
+    <t>get_highest_MAF
+I: vkey
+O: highest subpopulation/ethnicity MAF with AN &gt; 2000, only 0% if cov&gt;20x/sample</t>
+  </si>
+  <si>
+    <t>suggest_BS2
+I: chrom, vkey
+O: BS2 or other options</t>
+  </si>
+  <si>
+    <t>get_pdot
+I: vkey, transcript
+O: HGVS p. (via query of RVS)</t>
+  </si>
+  <si>
+    <t>get_variant_type
+I: vkey, transcript
+O: variant type (stopgain, frameshift, CSS, stoploss, startloss, inframe, nonsynonymous, intronic)</t>
+  </si>
+  <si>
+    <t>get_pathogenic_variant_MVL
+I: vkey
+O: Variant info from MVL</t>
+  </si>
+  <si>
+    <t>get_pathogenic_variant
+I: vkey
+O: Variant info from pathogenic dbs with a pathogenic assertion (allow discordant for review purposes)</t>
+  </si>
+  <si>
+    <t>get_pathogenic_variants
+I: chr, start, stop
+O: Potentially multiple variants in the range from pathogenic dbs with a pathogenic assertion (allow discordant for review purposes)</t>
+  </si>
+  <si>
+    <t>get_pathogenic_variants_MVL
+I: chr, start, stop
+O: Potentially multiple variants  in the range from MVL</t>
+  </si>
+  <si>
+    <t>suggest_PS4
+I: vkey, transcript
+O: PS4-M, PS4-P, or other options</t>
+  </si>
+  <si>
+    <t>suggest_BA1_BS1_PM2
+I: chrom, pos, vkey, transcript
+O: BA1, BS1, PM2, or NA if the position is not covered sufficiently</t>
+  </si>
+  <si>
+    <t>suggest_PP5_BP6
+I: vkey
+O: PP5, BP6, or other options (concordant assertions, no publication references, not in MVL, compare get_patho to get_patho_MVL)</t>
+  </si>
+  <si>
+    <t>get_total_genotype_counts
+I: vkey
+O: Total genotype counts at this position (number homoz, hetero, hemiz)</t>
+  </si>
+  <si>
+    <t>get_all_population_data
+I: vkey
+O: AC, AN, MAF, homo hetero hemiz counts for all available databases and ethnicities/sub-pops</t>
+  </si>
+  <si>
+    <t>normalize_VCF_variant
+I: VCF variant
+O: left-normalized VCF variant</t>
+  </si>
+  <si>
+    <t>basically done but not in proj_VISta</t>
+  </si>
+  <si>
+    <t>Manually curated results far off.  Have Gene-transcript from MVL and HGMD</t>
+  </si>
+  <si>
+    <t>Zach's to-do</t>
+  </si>
+  <si>
+    <t>Dianwei to-do</t>
+  </si>
+  <si>
+    <t>dbscSNV</t>
+  </si>
+  <si>
+    <t>rmsk</t>
+  </si>
+  <si>
+    <t>parse and upload to db2</t>
+  </si>
+  <si>
+    <t>Compare, assess, determine cutoffs for REVEL, CADD, metaSVM vs SIFT, PolyPhen2, MutationTaster2
+Consider including VEST3, REVEL, MetaSVM, MutationTaster, Mcap, and CADD (best 6 from Rong email [Plon])</t>
+  </si>
+  <si>
+    <t>basically done but not in proj_VISta
+Dianwei to-do</t>
   </si>
 </sst>
 </file>
@@ -528,7 +563,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +573,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -619,11 +672,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,26 +1019,26 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -952,16 +1050,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -970,13 +1068,16 @@
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
         <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="14" customFormat="1" ht="80" x14ac:dyDescent="0.2">
@@ -984,16 +1085,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D6" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>100</v>
+      <c r="E6" s="35" t="s">
+        <v>83</v>
       </c>
       <c r="F6" s="17"/>
     </row>
@@ -1002,15 +1103,17 @@
         <v>0</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D7" s="16">
         <v>3</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" s="14" customFormat="1" ht="96" x14ac:dyDescent="0.2">
@@ -1018,15 +1121,17 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D8" s="16">
         <v>3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -1034,30 +1139,33 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,13 +1173,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -1079,13 +1190,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
         <v>1</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1093,532 +1207,576 @@
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
         <v>1</v>
       </c>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="7">
         <v>2</v>
       </c>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="7">
         <v>1</v>
       </c>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
         <v>2</v>
       </c>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7"/>
+        <v>109</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="7">
+        <v>7</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="27">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="27">
+        <v>1</v>
+      </c>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="27">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="27">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="27">
+        <v>1</v>
+      </c>
+      <c r="E33" s="26"/>
+    </row>
+    <row r="34" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D34" s="32">
+        <v>1</v>
+      </c>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="32">
+        <v>1</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="32">
+        <v>1</v>
+      </c>
+      <c r="E36" s="30"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="32">
+        <v>1</v>
+      </c>
+      <c r="E37" s="30"/>
+    </row>
+    <row r="38" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="16">
+        <v>1</v>
+      </c>
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="16">
+        <v>1</v>
+      </c>
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D40" s="29">
+        <v>1</v>
+      </c>
+      <c r="E40" s="28"/>
+    </row>
+    <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="29">
+        <v>1</v>
+      </c>
+      <c r="E41" s="28"/>
+    </row>
+    <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="29">
+        <v>1</v>
+      </c>
+      <c r="E42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="13"/>
-      <c r="D27" s="11"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="46" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C46" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="D50" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D51" s="7">
         <v>1</v>
@@ -1626,13 +1784,13 @@
     </row>
     <row r="52" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D52" s="7">
         <v>1</v>
@@ -1640,13 +1798,13 @@
     </row>
     <row r="53" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="D53" s="7">
         <v>1</v>
@@ -1654,13 +1812,13 @@
     </row>
     <row r="54" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D54" s="7">
         <v>1</v>
@@ -1668,13 +1826,13 @@
     </row>
     <row r="55" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D55" s="7">
         <v>1</v>
@@ -1682,173 +1840,175 @@
     </row>
     <row r="56" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="10"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="11"/>
+    <row r="57" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D58" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="18">
-        <v>1</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
+        <v>57</v>
+      </c>
+      <c r="D59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="9" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="10"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="D61" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62" s="33">
+        <v>1</v>
+      </c>
+      <c r="E62" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="B63" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D63" s="7">
-        <v>1</v>
+        <v>102</v>
+      </c>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D64" s="7">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
     </row>
     <row r="65" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="D65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D66" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D67" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D68" s="7">
         <v>1</v>
@@ -1856,68 +2016,101 @@
     </row>
     <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="7">
+      <c r="D73" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="96" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" s="7">
+    <row r="74" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D73" s="7"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D74" s="7"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D75" s="7"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D76" s="7"/>
@@ -1964,11 +2157,17 @@
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="7"/>
     </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E12:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
